--- a/docs/project management/group list.xlsx
+++ b/docs/project management/group list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Full Name</t>
   </si>
@@ -112,13 +112,61 @@
   </si>
   <si>
     <t>lif5</t>
+  </si>
+  <si>
+    <t>http://users.aber.ac.uk/ole4/group-project</t>
+  </si>
+  <si>
+    <t>Blog URL</t>
+  </si>
+  <si>
+    <t>http://users.aber.ac.uk/lif5/wordpress/</t>
+  </si>
+  <si>
+    <t>http://users.aber.ac.uk/tma1/wordpress/</t>
+  </si>
+  <si>
+    <t>http://users.aber.ac.uk/jee17/wordpress/</t>
+  </si>
+  <si>
+    <t>https://bed19.wordpress.com/</t>
+  </si>
+  <si>
+    <t>http://jod32.blogspot.co.uk/</t>
+  </si>
+  <si>
+    <t>http://users.aber.ac.uk/daf5/blog/</t>
+  </si>
+  <si>
+    <t>Blog RSS</t>
+  </si>
+  <si>
+    <t>http://users.aber.ac.uk/daf5/blog/?feed=rss2</t>
+  </si>
+  <si>
+    <t>https://bed19.wordpress.com/feed/</t>
+  </si>
+  <si>
+    <t>http://users.aber.ac.uk/jee17/wordpress/?feed=rss2</t>
+  </si>
+  <si>
+    <t>http://jod32.blogspot.com/feeds/posts/default</t>
+  </si>
+  <si>
+    <t>http://users.aber.ac.uk/lif5/wordpress/?feed=rss2</t>
+  </si>
+  <si>
+    <t>http://users.aber.ac.uk/ole4/group-project/?feed=rss2</t>
+  </si>
+  <si>
+    <t>http://users.aber.ac.uk/tma1/wordpress/?feed=rss2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +184,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,15 +214,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,9 +536,11 @@
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -492,8 +553,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -506,8 +573,14 @@
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -520,8 +593,14 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -534,8 +613,14 @@
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -548,8 +633,14 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -562,8 +653,14 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -577,7 +674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -590,8 +687,14 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -603,14 +706,29 @@
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D9">
     <sortCondition ref="A2:A9"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId6"/>
+    <hyperlink ref="E3" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
